--- a/results/FigureData1.xlsx
+++ b/results/FigureData1.xlsx
@@ -11,6 +11,50 @@
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+  <si>
+    <t>doi</t>
+  </si>
+  <si>
+    <t>file name</t>
+  </si>
+  <si>
+    <t>bar.png</t>
+  </si>
+  <si>
+    <t>x-text</t>
+  </si>
+  <si>
+    <t>x-labels</t>
+  </si>
+  <si>
+    <t>y-text</t>
+  </si>
+  <si>
+    <t>y-labels</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>legends</t>
+  </si>
+  <si>
+    <t>SUV</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -53,6 +97,49 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="bar.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486400" y="3810000"/>
+          <a:ext cx="9020175" cy="7905750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -340,12 +427,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/results/FigureData1.xlsx
+++ b/results/FigureData1.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
   <si>
     <t>doi</t>
   </si>
@@ -22,21 +23,33 @@
     <t>file name</t>
   </si>
   <si>
+    <t>avgbar2.png</t>
+  </si>
+  <si>
+    <t>x-text</t>
+  </si>
+  <si>
+    <t>x-labels</t>
+  </si>
+  <si>
+    <t>y-text</t>
+  </si>
+  <si>
+    <t>y-labels</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>legends</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
     <t>bar.png</t>
   </si>
   <si>
-    <t>x-text</t>
-  </si>
-  <si>
-    <t>x-labels</t>
-  </si>
-  <si>
-    <t>y-text</t>
-  </si>
-  <si>
-    <t>y-labels</t>
-  </si>
-  <si>
     <t>25</t>
   </si>
   <si>
@@ -47,9 +60,6 @@
   </si>
   <si>
     <t>0</t>
-  </si>
-  <si>
-    <t>legends</t>
   </si>
   <si>
     <t>SUV</t>
@@ -100,6 +110,49 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="avgbar2.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486400" y="3810000"/>
+          <a:ext cx="4572000" cy="4572000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -427,9 +480,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -443,7 +559,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -466,35 +582,35 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/results/FigureData1.xlsx
+++ b/results/FigureData1.xlsx
@@ -8,14 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="38">
   <si>
     <t>doi</t>
   </si>
@@ -23,46 +22,112 @@
     <t>file name</t>
   </si>
   <si>
-    <t>avgbar2.png</t>
+    <t>bar.png</t>
   </si>
   <si>
     <t>x-text</t>
   </si>
   <si>
+    <t>Oral</t>
+  </si>
+  <si>
+    <t>Spinal</t>
+  </si>
+  <si>
+    <t>Pancreatic</t>
+  </si>
+  <si>
+    <t>Distant</t>
+  </si>
+  <si>
     <t>x-labels</t>
   </si>
   <si>
+    <t>Brain</t>
+  </si>
+  <si>
+    <t>mucosa</t>
+  </si>
+  <si>
+    <t>Parotis</t>
+  </si>
+  <si>
+    <t>Thyroid</t>
+  </si>
+  <si>
+    <t>Lung</t>
+  </si>
+  <si>
+    <t>Myocardium</t>
+  </si>
+  <si>
+    <t>pool</t>
+  </si>
+  <si>
+    <t>Liver</t>
+  </si>
+  <si>
+    <t>Pancreas</t>
+  </si>
+  <si>
+    <t>Spleen</t>
+  </si>
+  <si>
+    <t>Kidney</t>
+  </si>
+  <si>
+    <t>Intestine</t>
+  </si>
+  <si>
+    <t>Muscle</t>
+  </si>
+  <si>
+    <t>Fat</t>
+  </si>
+  <si>
+    <t>(L5)</t>
+  </si>
+  <si>
+    <t>tumor</t>
+  </si>
+  <si>
+    <t>metastases</t>
+  </si>
+  <si>
     <t>y-text</t>
   </si>
   <si>
+    <t>SUV</t>
+  </si>
+  <si>
     <t>y-labels</t>
   </si>
   <si>
-    <t>8</t>
+    <t>20</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
   <si>
     <t>legends</t>
   </si>
   <si>
-    <t>Revenue</t>
-  </si>
-  <si>
-    <t>bar.png</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>SUV</t>
+    <t>SUVmean</t>
+  </si>
+  <si>
+    <t>SUVmax</t>
   </si>
 </sst>
 </file>
@@ -110,49 +175,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="avgbar2.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5486400" y="3810000"/>
-          <a:ext cx="4572000" cy="4572000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -480,18 +502,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -499,118 +521,284 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>24</v>
+      </c>
+      <c r="R4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="B9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9" t="s">
+        <v>21</v>
+      </c>
+      <c r="O9" t="s">
+        <v>22</v>
+      </c>
+      <c r="P9" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>24</v>
+      </c>
+      <c r="R9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>15</v>
+        <v>36</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/results/FigureData1.xlsx
+++ b/results/FigureData1.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="55">
   <si>
     <t>doi</t>
   </si>
@@ -128,6 +129,57 @@
   </si>
   <si>
     <t>SUVmax</t>
+  </si>
+  <si>
+    <t>DataExtractionExample.png</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>PS</t>
+  </si>
+  <si>
+    <t>RS</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>Yields</t>
+  </si>
+  <si>
+    <t>(wt%)</t>
+  </si>
+  <si>
+    <t>50.0</t>
+  </si>
+  <si>
+    <t>40.0</t>
+  </si>
+  <si>
+    <t>30.0</t>
+  </si>
+  <si>
+    <t>20.0</t>
+  </si>
+  <si>
+    <t>10.0</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>Bio-oil</t>
+  </si>
+  <si>
+    <t>Solid</t>
+  </si>
+  <si>
+    <t>Gaseous product</t>
+  </si>
+  <si>
+    <t>Aqueous product</t>
   </si>
 </sst>
 </file>
@@ -206,6 +258,49 @@
         <a:xfrm>
           <a:off x="5486400" y="3810000"/>
           <a:ext cx="9020175" cy="7905750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>160351</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>68784</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="DataExtractionExample.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486400" y="3810000"/>
+          <a:ext cx="3817951" cy="2354784"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -805,4 +900,186 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10">
+        <v>7.8</v>
+      </c>
+      <c r="C10">
+        <v>14.7</v>
+      </c>
+      <c r="D10">
+        <v>15.1</v>
+      </c>
+      <c r="E10">
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11">
+        <v>35.3</v>
+      </c>
+      <c r="C11">
+        <v>34.3</v>
+      </c>
+      <c r="D11">
+        <v>31</v>
+      </c>
+      <c r="E11">
+        <v>24.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12">
+        <v>16.5</v>
+      </c>
+      <c r="C12">
+        <v>19.8</v>
+      </c>
+      <c r="D12">
+        <v>19.6</v>
+      </c>
+      <c r="E12">
+        <v>22.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13">
+        <v>39.8</v>
+      </c>
+      <c r="C13">
+        <v>31</v>
+      </c>
+      <c r="D13">
+        <v>33.9</v>
+      </c>
+      <c r="E13">
+        <v>36.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>